--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H2">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I2">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J2">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.472367</v>
       </c>
       <c r="O2">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="P2">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="Q2">
-        <v>0.08374909454333333</v>
+        <v>0.07254192504222222</v>
       </c>
       <c r="R2">
-        <v>0.7537418508899999</v>
+        <v>0.6528773253800001</v>
       </c>
       <c r="S2">
-        <v>0.00211990573122799</v>
+        <v>0.002421436415505247</v>
       </c>
       <c r="T2">
-        <v>0.00211990573122799</v>
+        <v>0.002421436415505247</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H3">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I3">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J3">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.739756333333332</v>
+        <v>6.739756333333333</v>
       </c>
       <c r="N3">
         <v>20.219269</v>
       </c>
       <c r="O3">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="P3">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="Q3">
-        <v>3.584808996136666</v>
+        <v>3.105095606184445</v>
       </c>
       <c r="R3">
-        <v>32.26328096523</v>
+        <v>27.94586045566</v>
       </c>
       <c r="S3">
-        <v>0.09074076773851777</v>
+        <v>0.1036475330653843</v>
       </c>
       <c r="T3">
-        <v>0.09074076773851777</v>
+        <v>0.1036475330653843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H4">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I4">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J4">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.06947766666666666</v>
+        <v>0.05133333333333333</v>
       </c>
       <c r="N4">
-        <v>0.208433</v>
+        <v>0.154</v>
       </c>
       <c r="O4">
-        <v>0.009972837888717018</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="P4">
-        <v>0.00997283788871702</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="Q4">
-        <v>0.03695447612333333</v>
+        <v>0.02364995111111111</v>
       </c>
       <c r="R4">
-        <v>0.3325902851099999</v>
+        <v>0.21284956</v>
       </c>
       <c r="S4">
-        <v>0.0009354131666205377</v>
+        <v>0.0007894311160343717</v>
       </c>
       <c r="T4">
-        <v>0.000935413166620538</v>
+        <v>0.0007894311160343717</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>3.392853</v>
       </c>
       <c r="I5">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J5">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,10 +750,10 @@
         <v>0.472367</v>
       </c>
       <c r="O5">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="P5">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="Q5">
         <v>0.1780746436723333</v>
@@ -762,10 +762,10 @@
         <v>1.602671793051</v>
       </c>
       <c r="S5">
-        <v>0.004507528824828492</v>
+        <v>0.005944099589517866</v>
       </c>
       <c r="T5">
-        <v>0.004507528824828492</v>
+        <v>0.005944099589517866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>3.392853</v>
       </c>
       <c r="I6">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J6">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.739756333333332</v>
+        <v>6.739756333333333</v>
       </c>
       <c r="N6">
         <v>20.219269</v>
       </c>
       <c r="O6">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="P6">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="Q6">
-        <v>7.622334164939666</v>
+        <v>7.622334164939667</v>
       </c>
       <c r="R6">
-        <v>68.60100748445699</v>
+        <v>68.601007484457</v>
       </c>
       <c r="S6">
-        <v>0.192940950224002</v>
+        <v>0.2544321439966198</v>
       </c>
       <c r="T6">
-        <v>0.192940950224002</v>
+        <v>0.2544321439966198</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>3.392853</v>
       </c>
       <c r="I7">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J7">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.06947766666666666</v>
+        <v>0.05133333333333333</v>
       </c>
       <c r="N7">
-        <v>0.208433</v>
+        <v>0.154</v>
       </c>
       <c r="O7">
-        <v>0.009972837888717018</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="P7">
-        <v>0.00997283788871702</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="Q7">
-        <v>0.07857583659433333</v>
+        <v>0.05805548466666667</v>
       </c>
       <c r="R7">
-        <v>0.7071825293489999</v>
+        <v>0.522499362</v>
       </c>
       <c r="S7">
-        <v>0.001988957220858944</v>
+        <v>0.001937881640304576</v>
       </c>
       <c r="T7">
-        <v>0.001988957220858945</v>
+        <v>0.001937881640304575</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H8">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I8">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J8">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.472367</v>
       </c>
       <c r="O8">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="P8">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="Q8">
-        <v>0.2429735131988889</v>
+        <v>0.3004548037244444</v>
       </c>
       <c r="R8">
-        <v>2.18676161879</v>
+        <v>2.70409323352</v>
       </c>
       <c r="S8">
-        <v>0.00615028671026899</v>
+        <v>0.01002912732917412</v>
       </c>
       <c r="T8">
-        <v>0.006150286710268991</v>
+        <v>0.01002912732917412</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H9">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I9">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J9">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.739756333333332</v>
+        <v>6.739756333333333</v>
       </c>
       <c r="N9">
         <v>20.219269</v>
       </c>
       <c r="O9">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="P9">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="Q9">
-        <v>10.40027525894778</v>
+        <v>12.86071317184889</v>
       </c>
       <c r="R9">
-        <v>93.60247733052998</v>
+        <v>115.74641854664</v>
       </c>
       <c r="S9">
-        <v>0.2632578089114053</v>
+        <v>0.4292882934324859</v>
       </c>
       <c r="T9">
-        <v>0.2632578089114053</v>
+        <v>0.4292882934324859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H10">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I10">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J10">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.06947766666666666</v>
+        <v>0.05133333333333333</v>
       </c>
       <c r="N10">
-        <v>0.208433</v>
+        <v>0.154</v>
       </c>
       <c r="O10">
-        <v>0.009972837888717018</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="P10">
-        <v>0.00997283788871702</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="Q10">
-        <v>0.1072126085788889</v>
+        <v>0.09795358222222221</v>
       </c>
       <c r="R10">
-        <v>0.9649134772099999</v>
+        <v>0.8815822399999999</v>
       </c>
       <c r="S10">
-        <v>0.002713827828534797</v>
+        <v>0.003269672963379775</v>
       </c>
       <c r="T10">
-        <v>0.002713827828534797</v>
+        <v>0.003269672963379775</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H11">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I11">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J11">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,22 +1122,22 @@
         <v>0.472367</v>
       </c>
       <c r="O11">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="P11">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="Q11">
-        <v>0.1309914104621111</v>
+        <v>0.09958425348433333</v>
       </c>
       <c r="R11">
-        <v>1.178922694159</v>
+        <v>0.896258281359</v>
       </c>
       <c r="S11">
-        <v>0.003315730674993576</v>
+        <v>0.003324104476928603</v>
       </c>
       <c r="T11">
-        <v>0.003315730674993576</v>
+        <v>0.003324104476928603</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H12">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I12">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J12">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.739756333333332</v>
+        <v>6.739756333333333</v>
       </c>
       <c r="N12">
         <v>20.219269</v>
       </c>
       <c r="O12">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="P12">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="Q12">
-        <v>5.606976280779222</v>
+        <v>4.262619550823667</v>
       </c>
       <c r="R12">
-        <v>50.46278652701299</v>
+        <v>38.363575957413</v>
       </c>
       <c r="S12">
-        <v>0.141927040731564</v>
+        <v>0.1422854742247526</v>
       </c>
       <c r="T12">
-        <v>0.141927040731564</v>
+        <v>0.1422854742247526</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H13">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I13">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J13">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.06947766666666666</v>
+        <v>0.05133333333333333</v>
       </c>
       <c r="N13">
-        <v>0.208433</v>
+        <v>0.154</v>
       </c>
       <c r="O13">
-        <v>0.009972837888717018</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="P13">
-        <v>0.00997283788871702</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="Q13">
-        <v>0.05780025416011111</v>
+        <v>0.03246622866666667</v>
       </c>
       <c r="R13">
-        <v>0.5202022874409999</v>
+        <v>0.292196058</v>
       </c>
       <c r="S13">
-        <v>0.001463073609674122</v>
+        <v>0.001083716875749163</v>
       </c>
       <c r="T13">
-        <v>0.001463073609674122</v>
+        <v>0.001083716875749163</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H14">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I14">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J14">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.472367</v>
       </c>
       <c r="O14">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="P14">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="Q14">
-        <v>0.2570960793387778</v>
+        <v>0.02820466617344445</v>
       </c>
       <c r="R14">
-        <v>2.313864714049</v>
+        <v>0.253841995561</v>
       </c>
       <c r="S14">
-        <v>0.006507765308250799</v>
+        <v>0.0009414666859170968</v>
       </c>
       <c r="T14">
-        <v>0.0065077653082508</v>
+        <v>0.0009414666859170967</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H15">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I15">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J15">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.739756333333332</v>
+        <v>6.739756333333333</v>
       </c>
       <c r="N15">
         <v>20.219269</v>
       </c>
       <c r="O15">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="P15">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="Q15">
-        <v>11.00477973058255</v>
+        <v>1.207276825891889</v>
       </c>
       <c r="R15">
-        <v>99.04301757524298</v>
+        <v>10.865491433027</v>
       </c>
       <c r="S15">
-        <v>0.2785593772562241</v>
+        <v>0.04029868339044915</v>
       </c>
       <c r="T15">
-        <v>0.2785593772562241</v>
+        <v>0.04029868339044915</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H16">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I16">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J16">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.06947766666666666</v>
+        <v>0.05133333333333333</v>
       </c>
       <c r="N16">
-        <v>0.208433</v>
+        <v>0.154</v>
       </c>
       <c r="O16">
-        <v>0.009972837888717018</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="P16">
-        <v>0.00997283788871702</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="Q16">
-        <v>0.1134442226167778</v>
+        <v>0.009195220222222224</v>
       </c>
       <c r="R16">
-        <v>1.020998003551</v>
+        <v>0.08275698200000001</v>
       </c>
       <c r="S16">
-        <v>0.002871566063028617</v>
+        <v>0.000306934797797545</v>
       </c>
       <c r="T16">
-        <v>0.002871566063028618</v>
+        <v>0.0003069347977975449</v>
       </c>
     </row>
   </sheetData>
